--- a/aiurt-module-system/src/main/resources/templates/sensorinformationerror.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sensorinformationerror.xlsx
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1113,7 +1113,7 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
